--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -447,10 +447,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5.048698546229687E-14</v>
+        <v>1.009048904655203E-25</v>
       </c>
       <c r="E2">
-        <v>5.048698546229687E-14</v>
+        <v>1.009048904655203E-25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,13 +458,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1611668688344698</v>
+        <v>0.9880664884257978</v>
       </c>
       <c r="E3">
-        <v>0.1611668688344698</v>
+        <v>0.9880664884257978</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>4.440892098500626E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004101426212037558</v>
+        <v>0.004141732160331217</v>
       </c>
       <c r="E5">
-        <v>0.9958985737879624</v>
+        <v>0.9958582678396688</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -503,10 +503,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.9999882049077446</v>
+        <v>0.9999886441459673</v>
       </c>
       <c r="E6">
-        <v>1.179509225535114E-05</v>
+        <v>1.135585403266859E-05</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -517,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.166898153092496E-15</v>
+        <v>1.095249105107897E-17</v>
       </c>
       <c r="E7">
-        <v>0.9999999999999978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -531,16 +531,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.57503069532248E-38</v>
+        <v>2.799138329023281E-47</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>17.91646957397461</v>
+        <v>22.30860328674316</v>
       </c>
       <c r="G8">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
   </sheetData>
